--- a/results/mp/tinybert/corona/confidence/42/stop-words-topk-0.1/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/42/stop-words-topk-0.1/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="57">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,46 +40,28 @@
     <t>name</t>
   </si>
   <si>
-    <t>kills</t>
-  </si>
-  <si>
     <t>arrested</t>
   </si>
   <si>
-    <t>accused</t>
-  </si>
-  <si>
-    <t>killed</t>
+    <t>crude</t>
+  </si>
+  <si>
+    <t>died</t>
   </si>
   <si>
     <t>fraud</t>
   </si>
   <si>
-    <t>crude</t>
-  </si>
-  <si>
-    <t>chaos</t>
-  </si>
-  <si>
-    <t>died</t>
-  </si>
-  <si>
     <t>crisis</t>
   </si>
   <si>
+    <t>warning</t>
+  </si>
+  <si>
     <t>forced</t>
   </si>
   <si>
-    <t>warning</t>
-  </si>
-  <si>
-    <t>emergency</t>
-  </si>
-  <si>
-    <t>war</t>
-  </si>
-  <si>
-    <t>fears</t>
+    <t>sc</t>
   </si>
   <si>
     <t>panic</t>
@@ -88,127 +70,121 @@
     <t>low</t>
   </si>
   <si>
-    <t>sc</t>
-  </si>
-  <si>
-    <t>stop</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
     <t>interesting</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>love</t>
   </si>
   <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
     <t>thanks</t>
   </si>
   <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>nice</t>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>thank</t>
   </si>
   <si>
     <t>positive</t>
   </si>
   <si>
-    <t>thank</t>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>amazing</t>
   </si>
   <si>
     <t>free</t>
   </si>
   <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
     <t>support</t>
   </si>
   <si>
-    <t>safe</t>
+    <t>good</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>like</t>
   </si>
   <si>
     <t>heroes</t>
   </si>
   <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>boost</t>
+    <t>care</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>increase</t>
   </si>
   <si>
     <t>important</t>
   </si>
   <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>ensure</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>protect</t>
+    <t>please</t>
+  </si>
+  <si>
+    <t>sure</t>
   </si>
   <si>
     <t>hope</t>
   </si>
   <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>energy</t>
-  </si>
-  <si>
     <t>share</t>
   </si>
   <si>
-    <t>store</t>
-  </si>
-  <si>
-    <t>grocery</t>
+    <t>co</t>
   </si>
 </sst>
 </file>
@@ -574,10 +550,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="J1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -635,13 +611,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="C3">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D3">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -653,19 +629,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>0.9696969696969697</v>
       </c>
       <c r="L3">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="M3">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -677,7 +653,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -685,13 +661,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0.8235294117647058</v>
       </c>
       <c r="C4">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D4">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -703,19 +679,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="K4">
-        <v>0.9583333333333334</v>
+        <v>0.9491525423728814</v>
       </c>
       <c r="L4">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="M4">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -727,7 +703,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -735,37 +711,37 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>0.7307692307692307</v>
       </c>
       <c r="C5">
+        <v>19</v>
+      </c>
+      <c r="D5">
+        <v>19</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H5">
         <v>7</v>
       </c>
-      <c r="D5">
-        <v>7</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
       <c r="J5" s="1" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="K5">
-        <v>0.925</v>
+        <v>0.9347826086956522</v>
       </c>
       <c r="L5">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="M5">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -785,13 +761,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C6">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="D6">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -803,19 +779,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="K6">
-        <v>0.9090909090909091</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="L6">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="M6">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -827,7 +803,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -835,13 +811,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.8823529411764706</v>
+        <v>0.6232876712328768</v>
       </c>
       <c r="C7">
-        <v>15</v>
+        <v>182</v>
       </c>
       <c r="D7">
-        <v>15</v>
+        <v>182</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -853,19 +829,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>110</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="K7">
-        <v>0.90625</v>
+        <v>0.875</v>
       </c>
       <c r="L7">
-        <v>29</v>
+        <v>98</v>
       </c>
       <c r="M7">
-        <v>29</v>
+        <v>98</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -877,7 +853,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>3</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -885,38 +861,38 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.88</v>
+        <v>0.52</v>
       </c>
       <c r="C8">
+        <v>13</v>
+      </c>
+      <c r="D8">
+        <v>13</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>12</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K8">
+        <v>0.8461538461538461</v>
+      </c>
+      <c r="L8">
         <v>22</v>
       </c>
-      <c r="D8">
+      <c r="M8">
         <v>22</v>
       </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>3</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K8">
-        <v>0.8823529411764706</v>
-      </c>
-      <c r="L8">
-        <v>45</v>
-      </c>
-      <c r="M8">
-        <v>45</v>
-      </c>
       <c r="N8">
         <v>1</v>
       </c>
@@ -927,7 +903,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -935,13 +911,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.875</v>
+        <v>0.5172413793103449</v>
       </c>
       <c r="C9">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D9">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -953,31 +929,31 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="K9">
-        <v>0.875</v>
+        <v>0.8292682926829268</v>
       </c>
       <c r="L9">
+        <v>68</v>
+      </c>
+      <c r="M9">
+        <v>68</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q9">
         <v>14</v>
-      </c>
-      <c r="M9">
-        <v>14</v>
-      </c>
-      <c r="N9">
-        <v>1</v>
-      </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-      <c r="P9" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q9">
-        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -985,13 +961,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.8</v>
+        <v>0.1798941798941799</v>
       </c>
       <c r="C10">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="D10">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1003,19 +979,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>155</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="K10">
-        <v>0.8518518518518519</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="L10">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="M10">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1035,13 +1011,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.7597402597402597</v>
+        <v>0.1724806201550388</v>
       </c>
       <c r="C11">
-        <v>117</v>
+        <v>89</v>
       </c>
       <c r="D11">
-        <v>117</v>
+        <v>89</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1053,19 +1029,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>37</v>
+        <v>427</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="K11">
-        <v>0.8333333333333334</v>
+        <v>0.796875</v>
       </c>
       <c r="L11">
-        <v>45</v>
+        <v>102</v>
       </c>
       <c r="M11">
-        <v>45</v>
+        <v>102</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1077,7 +1053,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>9</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1085,13 +1061,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.6363636363636364</v>
+        <v>0.1073825503355705</v>
       </c>
       <c r="C12">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D12">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1103,13 +1079,13 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>4</v>
+        <v>133</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="K12">
-        <v>0.8214285714285714</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="L12">
         <v>46</v>
@@ -1127,447 +1103,255 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:17">
-      <c r="A13" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13">
-        <v>0.6</v>
-      </c>
-      <c r="C13">
+      <c r="J13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K13">
+        <v>0.7894736842105263</v>
+      </c>
+      <c r="L13">
+        <v>15</v>
+      </c>
+      <c r="M13">
+        <v>15</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="J14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K14">
+        <v>0.7777777777777778</v>
+      </c>
+      <c r="L14">
+        <v>28</v>
+      </c>
+      <c r="M14">
+        <v>28</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="J15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K15">
+        <v>0.7777777777777778</v>
+      </c>
+      <c r="L15">
+        <v>14</v>
+      </c>
+      <c r="M15">
+        <v>14</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="J16" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K16">
+        <v>0.7666666666666667</v>
+      </c>
+      <c r="L16">
+        <v>92</v>
+      </c>
+      <c r="M16">
+        <v>92</v>
+      </c>
+      <c r="N16">
+        <v>1</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="10:17">
+      <c r="J17" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K17">
+        <v>0.75</v>
+      </c>
+      <c r="L17">
+        <v>27</v>
+      </c>
+      <c r="M17">
+        <v>27</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q17">
         <v>9</v>
       </c>
-      <c r="D13">
-        <v>9</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13" t="b">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>6</v>
-      </c>
-      <c r="J13" s="1" t="s">
+    </row>
+    <row r="18" spans="10:17">
+      <c r="J18" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K18">
+        <v>0.7394366197183099</v>
+      </c>
+      <c r="L18">
+        <v>105</v>
+      </c>
+      <c r="M18">
+        <v>105</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q18">
         <v>37</v>
       </c>
-      <c r="K13">
-        <v>0.7843137254901961</v>
-      </c>
-      <c r="L13">
-        <v>40</v>
-      </c>
-      <c r="M13">
-        <v>40</v>
-      </c>
-      <c r="N13">
-        <v>1</v>
-      </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
-      <c r="P13" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q13">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
-      <c r="A14" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14">
-        <v>0.3928571428571428</v>
-      </c>
-      <c r="C14">
-        <v>11</v>
-      </c>
-      <c r="D14">
-        <v>11</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14" t="b">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>17</v>
-      </c>
-      <c r="J14" s="1" t="s">
+    </row>
+    <row r="19" spans="10:17">
+      <c r="J19" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K19">
+        <v>0.7075471698113207</v>
+      </c>
+      <c r="L19">
+        <v>75</v>
+      </c>
+      <c r="M19">
+        <v>75</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="10:17">
+      <c r="J20" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K20">
+        <v>0.7</v>
+      </c>
+      <c r="L20">
+        <v>112</v>
+      </c>
+      <c r="M20">
+        <v>112</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="10:17">
+      <c r="J21" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K21">
+        <v>0.6862745098039216</v>
+      </c>
+      <c r="L21">
+        <v>35</v>
+      </c>
+      <c r="M21">
+        <v>35</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="10:17">
+      <c r="J22" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="K14">
-        <v>0.7758620689655172</v>
-      </c>
-      <c r="L14">
-        <v>45</v>
-      </c>
-      <c r="M14">
-        <v>45</v>
-      </c>
-      <c r="N14">
-        <v>1</v>
-      </c>
-      <c r="O14">
-        <v>0</v>
-      </c>
-      <c r="P14" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q14">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
-      <c r="A15" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="C15">
-        <v>8</v>
-      </c>
-      <c r="D15">
-        <v>8</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15" t="b">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>16</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="K15">
-        <v>0.75</v>
-      </c>
-      <c r="L15">
-        <v>18</v>
-      </c>
-      <c r="M15">
-        <v>18</v>
-      </c>
-      <c r="N15">
-        <v>1</v>
-      </c>
-      <c r="O15">
-        <v>0</v>
-      </c>
-      <c r="P15" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q15">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
-      <c r="A16" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="C16">
-        <v>9</v>
-      </c>
-      <c r="D16">
-        <v>9</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16" t="b">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>18</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="K16">
-        <v>0.7435897435897436</v>
-      </c>
-      <c r="L16">
-        <v>29</v>
-      </c>
-      <c r="M16">
-        <v>29</v>
-      </c>
-      <c r="N16">
-        <v>1</v>
-      </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
-      <c r="P16" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q16">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
-      <c r="A17" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17">
-        <v>0.3218884120171674</v>
-      </c>
-      <c r="C17">
-        <v>75</v>
-      </c>
-      <c r="D17">
-        <v>75</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17" t="b">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>158</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="K17">
-        <v>0.7241379310344828</v>
-      </c>
-      <c r="L17">
-        <v>21</v>
-      </c>
-      <c r="M17">
-        <v>21</v>
-      </c>
-      <c r="N17">
-        <v>1</v>
-      </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
-      <c r="P17" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q17">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
-      <c r="A18" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18">
-        <v>0.25</v>
-      </c>
-      <c r="C18">
-        <v>20</v>
-      </c>
-      <c r="D18">
-        <v>20</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18" t="b">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>60</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="K18">
-        <v>0.6712328767123288</v>
-      </c>
-      <c r="L18">
-        <v>49</v>
-      </c>
-      <c r="M18">
-        <v>49</v>
-      </c>
-      <c r="N18">
-        <v>1</v>
-      </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-      <c r="P18" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
-      <c r="A19" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19">
-        <v>0.186046511627907</v>
-      </c>
-      <c r="C19">
-        <v>16</v>
-      </c>
-      <c r="D19">
-        <v>16</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19" t="b">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>70</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="K19">
-        <v>0.6470588235294118</v>
-      </c>
-      <c r="L19">
-        <v>11</v>
-      </c>
-      <c r="M19">
-        <v>11</v>
-      </c>
-      <c r="N19">
-        <v>1</v>
-      </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-      <c r="P19" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
-      <c r="A20" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B20">
-        <v>0.1</v>
-      </c>
-      <c r="C20">
-        <v>11</v>
-      </c>
-      <c r="D20">
-        <v>11</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20" t="b">
-        <v>0</v>
-      </c>
-      <c r="H20">
-        <v>99</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="K20">
-        <v>0.6470588235294118</v>
-      </c>
-      <c r="L20">
-        <v>11</v>
-      </c>
-      <c r="M20">
-        <v>11</v>
-      </c>
-      <c r="N20">
-        <v>1</v>
-      </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-      <c r="P20" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
-      <c r="J21" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="K21">
-        <v>0.64</v>
-      </c>
-      <c r="L21">
-        <v>16</v>
-      </c>
-      <c r="M21">
-        <v>16</v>
-      </c>
-      <c r="N21">
-        <v>1</v>
-      </c>
-      <c r="O21">
-        <v>0</v>
-      </c>
-      <c r="P21" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q21">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
-      <c r="J22" s="1" t="s">
-        <v>46</v>
       </c>
       <c r="K22">
         <v>0.64</v>
       </c>
       <c r="L22">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="M22">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1579,255 +1363,255 @@
         <v>0</v>
       </c>
       <c r="Q22">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="10:17">
+      <c r="J23" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K23">
+        <v>0.6349206349206349</v>
+      </c>
+      <c r="L23">
+        <v>40</v>
+      </c>
+      <c r="M23">
+        <v>40</v>
+      </c>
+      <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="10:17">
+      <c r="J24" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K24">
+        <v>0.6276595744680851</v>
+      </c>
+      <c r="L24">
+        <v>59</v>
+      </c>
+      <c r="M24">
+        <v>59</v>
+      </c>
+      <c r="N24">
+        <v>1</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="10:17">
+      <c r="J25" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K25">
+        <v>0.625</v>
+      </c>
+      <c r="L25">
+        <v>15</v>
+      </c>
+      <c r="M25">
+        <v>15</v>
+      </c>
+      <c r="N25">
+        <v>1</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q25">
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:17">
-      <c r="J23" s="1" t="s">
+    <row r="26" spans="10:17">
+      <c r="J26" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K26">
+        <v>0.6041666666666666</v>
+      </c>
+      <c r="L26">
+        <v>29</v>
+      </c>
+      <c r="M26">
+        <v>29</v>
+      </c>
+      <c r="N26">
+        <v>1</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="10:17">
+      <c r="J27" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K27">
+        <v>0.5117493472584856</v>
+      </c>
+      <c r="L27">
+        <v>196</v>
+      </c>
+      <c r="M27">
+        <v>196</v>
+      </c>
+      <c r="N27">
+        <v>1</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="28" spans="10:17">
+      <c r="J28" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K28">
+        <v>0.4814814814814815</v>
+      </c>
+      <c r="L28">
+        <v>13</v>
+      </c>
+      <c r="M28">
+        <v>13</v>
+      </c>
+      <c r="N28">
+        <v>1</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="10:17">
+      <c r="J29" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K29">
+        <v>0.4705882352941176</v>
+      </c>
+      <c r="L29">
+        <v>160</v>
+      </c>
+      <c r="M29">
+        <v>160</v>
+      </c>
+      <c r="N29">
+        <v>1</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="30" spans="10:17">
+      <c r="J30" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K30">
+        <v>0.4468085106382979</v>
+      </c>
+      <c r="L30">
+        <v>21</v>
+      </c>
+      <c r="M30">
+        <v>21</v>
+      </c>
+      <c r="N30">
+        <v>1</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="31" spans="10:17">
+      <c r="J31" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="K23">
-        <v>0.6153846153846154</v>
-      </c>
-      <c r="L23">
-        <v>16</v>
-      </c>
-      <c r="M23">
-        <v>16</v>
-      </c>
-      <c r="N23">
-        <v>1</v>
-      </c>
-      <c r="O23">
-        <v>0</v>
-      </c>
-      <c r="P23" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q23">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
-      <c r="J24" s="1" t="s">
+      <c r="K31">
+        <v>0.4269662921348314</v>
+      </c>
+      <c r="L31">
+        <v>38</v>
+      </c>
+      <c r="M31">
+        <v>38</v>
+      </c>
+      <c r="N31">
+        <v>1</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="32" spans="10:17">
+      <c r="J32" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="K24">
-        <v>0.6153846153846154</v>
-      </c>
-      <c r="L24">
-        <v>8</v>
-      </c>
-      <c r="M24">
-        <v>8</v>
-      </c>
-      <c r="N24">
-        <v>1</v>
-      </c>
-      <c r="O24">
-        <v>0</v>
-      </c>
-      <c r="P24" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q24">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
-      <c r="J25" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="K25">
-        <v>0.6060606060606061</v>
-      </c>
-      <c r="L25">
-        <v>20</v>
-      </c>
-      <c r="M25">
-        <v>20</v>
-      </c>
-      <c r="N25">
-        <v>1</v>
-      </c>
-      <c r="O25">
-        <v>0</v>
-      </c>
-      <c r="P25" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q25">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17">
-      <c r="J26" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="K26">
-        <v>0.5868544600938967</v>
-      </c>
-      <c r="L26">
-        <v>125</v>
-      </c>
-      <c r="M26">
-        <v>125</v>
-      </c>
-      <c r="N26">
-        <v>1</v>
-      </c>
-      <c r="O26">
-        <v>0</v>
-      </c>
-      <c r="P26" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q26">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17">
-      <c r="J27" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="K27">
-        <v>0.5833333333333334</v>
-      </c>
-      <c r="L27">
-        <v>7</v>
-      </c>
-      <c r="M27">
-        <v>7</v>
-      </c>
-      <c r="N27">
-        <v>1</v>
-      </c>
-      <c r="O27">
-        <v>0</v>
-      </c>
-      <c r="P27" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q27">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17">
-      <c r="J28" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="K28">
-        <v>0.5789473684210527</v>
-      </c>
-      <c r="L28">
-        <v>11</v>
-      </c>
-      <c r="M28">
-        <v>11</v>
-      </c>
-      <c r="N28">
-        <v>1</v>
-      </c>
-      <c r="O28">
-        <v>0</v>
-      </c>
-      <c r="P28" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q28">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17">
-      <c r="J29" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="K29">
-        <v>0.5</v>
-      </c>
-      <c r="L29">
-        <v>15</v>
-      </c>
-      <c r="M29">
-        <v>15</v>
-      </c>
-      <c r="N29">
-        <v>1</v>
-      </c>
-      <c r="O29">
-        <v>0</v>
-      </c>
-      <c r="P29" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q29">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17">
-      <c r="J30" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="K30">
-        <v>0.5</v>
-      </c>
-      <c r="L30">
-        <v>14</v>
-      </c>
-      <c r="M30">
-        <v>14</v>
-      </c>
-      <c r="N30">
-        <v>1</v>
-      </c>
-      <c r="O30">
-        <v>0</v>
-      </c>
-      <c r="P30" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q30">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17">
-      <c r="J31" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="K31">
-        <v>0.5</v>
-      </c>
-      <c r="L31">
-        <v>72</v>
-      </c>
-      <c r="M31">
-        <v>72</v>
-      </c>
-      <c r="N31">
-        <v>1</v>
-      </c>
-      <c r="O31">
-        <v>0</v>
-      </c>
-      <c r="P31" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q31">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17">
-      <c r="J32" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="K32">
-        <v>0.5</v>
+        <v>0.3835616438356164</v>
       </c>
       <c r="L32">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="M32">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1839,21 +1623,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="K33">
-        <v>0.4651162790697674</v>
+        <v>0.3694915254237288</v>
       </c>
       <c r="L33">
-        <v>60</v>
+        <v>109</v>
       </c>
       <c r="M33">
-        <v>60</v>
+        <v>109</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1865,21 +1649,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>69</v>
+        <v>186</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="K34">
-        <v>0.4285714285714285</v>
+        <v>0.358974358974359</v>
       </c>
       <c r="L34">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="M34">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1891,21 +1675,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>20</v>
+        <v>50</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="K35">
-        <v>0.4130434782608696</v>
+        <v>0.3555555555555556</v>
       </c>
       <c r="L35">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="M35">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1917,21 +1701,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>54</v>
+        <v>29</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="K36">
-        <v>0.4</v>
+        <v>0.3221757322175732</v>
       </c>
       <c r="L36">
-        <v>8</v>
+        <v>77</v>
       </c>
       <c r="M36">
-        <v>8</v>
+        <v>77</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1943,21 +1727,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>12</v>
+        <v>162</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="K37">
-        <v>0.3181818181818182</v>
+        <v>0.296875</v>
       </c>
       <c r="L37">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="M37">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1969,21 +1753,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>15</v>
+        <v>45</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="K38">
-        <v>0.2368421052631579</v>
+        <v>0.2461538461538462</v>
       </c>
       <c r="L38">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="M38">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1995,21 +1779,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>29</v>
+        <v>49</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="K39">
-        <v>0.01951219512195122</v>
+        <v>0.2285714285714286</v>
       </c>
       <c r="L39">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="M39">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2021,33 +1805,33 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>402</v>
+        <v>54</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="K40">
-        <v>0.01643192488262911</v>
+        <v>0.004829362524146813</v>
       </c>
       <c r="L40">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="M40">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="N40">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O40">
-        <v>0</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q40">
-        <v>419</v>
+        <v>3091</v>
       </c>
     </row>
   </sheetData>

--- a/results/mp/tinybert/corona/confidence/42/stop-words-topk-0.1/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/42/stop-words-topk-0.1/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="62">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,79 +40,82 @@
     <t>name</t>
   </si>
   <si>
+    <t>killed</t>
+  </si>
+  <si>
+    <t>crude</t>
+  </si>
+  <si>
     <t>arrested</t>
   </si>
   <si>
-    <t>crude</t>
-  </si>
-  <si>
     <t>died</t>
   </si>
   <si>
+    <t>crisis</t>
+  </si>
+  <si>
     <t>fraud</t>
   </si>
   <si>
-    <t>crisis</t>
-  </si>
-  <si>
-    <t>warning</t>
-  </si>
-  <si>
     <t>forced</t>
   </si>
   <si>
+    <t>panic</t>
+  </si>
+  <si>
     <t>sc</t>
   </si>
   <si>
-    <t>panic</t>
-  </si>
-  <si>
     <t>low</t>
   </si>
   <si>
     <t>negative</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
     <t>interesting</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>love</t>
+    <t>great</t>
   </si>
   <si>
     <t>nice</t>
   </si>
   <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>happy</t>
+    <t>special</t>
   </si>
   <si>
     <t>thanks</t>
   </si>
   <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
     <t>strong</t>
   </si>
   <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>friend</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>amazing</t>
-  </si>
-  <si>
-    <t>free</t>
+    <t>safety</t>
   </si>
   <si>
     <t>confidence</t>
@@ -121,67 +124,79 @@
     <t>safe</t>
   </si>
   <si>
+    <t>good</t>
+  </si>
+  <si>
     <t>support</t>
   </si>
   <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>safety</t>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>friends</t>
   </si>
   <si>
     <t>relief</t>
   </si>
   <si>
-    <t>better</t>
-  </si>
-  <si>
     <t>well</t>
   </si>
   <si>
-    <t>ensure</t>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>hand</t>
   </si>
   <si>
     <t>fresh</t>
   </si>
   <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>healthy</t>
-  </si>
-  <si>
     <t>like</t>
   </si>
   <si>
-    <t>heroes</t>
-  </si>
-  <si>
     <t>care</t>
   </si>
   <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>energy</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
     <t>protect</t>
   </si>
   <si>
-    <t>help</t>
+    <t>important</t>
+  </si>
+  <si>
+    <t>hope</t>
   </si>
   <si>
     <t>increase</t>
   </si>
   <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
     <t>sure</t>
   </si>
   <si>
-    <t>hope</t>
-  </si>
-  <si>
     <t>share</t>
+  </si>
+  <si>
+    <t>store</t>
+  </si>
+  <si>
+    <t>19</t>
   </si>
   <si>
     <t>co</t>
@@ -542,7 +557,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q40"/>
+  <dimension ref="A1:Q45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -553,7 +568,7 @@
         <v>18</v>
       </c>
       <c r="J1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -611,7 +626,7 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8666666666666667</v>
+        <v>1</v>
       </c>
       <c r="C3">
         <v>13</v>
@@ -629,19 +644,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>19</v>
       </c>
       <c r="K3">
-        <v>0.9696969696969697</v>
+        <v>0.9661016949152542</v>
       </c>
       <c r="L3">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="M3">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -653,7 +668,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -661,13 +676,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8235294117647058</v>
+        <v>0.8823529411764706</v>
       </c>
       <c r="C4">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D4">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -679,19 +694,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>20</v>
       </c>
       <c r="K4">
-        <v>0.9491525423728814</v>
+        <v>0.9615384615384616</v>
       </c>
       <c r="L4">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="M4">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -703,7 +718,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -711,13 +726,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7307692307692307</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="C5">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D5">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -729,19 +744,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>21</v>
       </c>
       <c r="K5">
-        <v>0.9347826086956522</v>
+        <v>0.9473684210526315</v>
       </c>
       <c r="L5">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="M5">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -753,7 +768,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -761,13 +776,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.6666666666666666</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="C6">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="D6">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -779,19 +794,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>22</v>
       </c>
       <c r="K6">
-        <v>0.8888888888888888</v>
+        <v>0.9130434782608695</v>
       </c>
       <c r="L6">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="M6">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -803,7 +818,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -811,13 +826,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.6232876712328768</v>
+        <v>0.6061643835616438</v>
       </c>
       <c r="C7">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="D7">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -829,19 +844,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>23</v>
       </c>
       <c r="K7">
-        <v>0.875</v>
+        <v>0.8787878787878788</v>
       </c>
       <c r="L7">
-        <v>98</v>
+        <v>29</v>
       </c>
       <c r="M7">
-        <v>98</v>
+        <v>29</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -853,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -861,13 +876,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.52</v>
+        <v>0.5277777777777778</v>
       </c>
       <c r="C8">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D8">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -879,19 +894,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>24</v>
       </c>
       <c r="K8">
-        <v>0.8461538461538461</v>
+        <v>0.8660714285714286</v>
       </c>
       <c r="L8">
-        <v>22</v>
+        <v>97</v>
       </c>
       <c r="M8">
-        <v>22</v>
+        <v>97</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -903,7 +918,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -911,13 +926,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.5172413793103449</v>
+        <v>0.4482758620689655</v>
       </c>
       <c r="C9">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D9">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -929,19 +944,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>25</v>
       </c>
       <c r="K9">
-        <v>0.8292682926829268</v>
+        <v>0.8148148148148148</v>
       </c>
       <c r="L9">
-        <v>68</v>
+        <v>22</v>
       </c>
       <c r="M9">
-        <v>68</v>
+        <v>22</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -953,7 +968,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -961,13 +976,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.1798941798941799</v>
+        <v>0.1802325581395349</v>
       </c>
       <c r="C10">
-        <v>34</v>
+        <v>93</v>
       </c>
       <c r="D10">
-        <v>34</v>
+        <v>93</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -979,19 +994,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>155</v>
+        <v>423</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>26</v>
       </c>
       <c r="K10">
-        <v>0.8181818181818182</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="L10">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="M10">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1003,7 +1018,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1011,13 +1026,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.1724806201550388</v>
+        <v>0.1798941798941799</v>
       </c>
       <c r="C11">
-        <v>89</v>
+        <v>34</v>
       </c>
       <c r="D11">
-        <v>89</v>
+        <v>34</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1029,19 +1044,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>427</v>
+        <v>155</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>27</v>
       </c>
       <c r="K11">
-        <v>0.796875</v>
+        <v>0.8048780487804879</v>
       </c>
       <c r="L11">
-        <v>102</v>
+        <v>66</v>
       </c>
       <c r="M11">
-        <v>102</v>
+        <v>66</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1053,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1061,13 +1076,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.1073825503355705</v>
+        <v>0.09395973154362416</v>
       </c>
       <c r="C12">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D12">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1079,19 +1094,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>28</v>
       </c>
       <c r="K12">
-        <v>0.7931034482758621</v>
+        <v>0.8046875</v>
       </c>
       <c r="L12">
-        <v>46</v>
+        <v>103</v>
       </c>
       <c r="M12">
-        <v>46</v>
+        <v>103</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1103,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1111,13 +1126,13 @@
         <v>29</v>
       </c>
       <c r="K13">
-        <v>0.7894736842105263</v>
+        <v>0.7833333333333333</v>
       </c>
       <c r="L13">
-        <v>15</v>
+        <v>94</v>
       </c>
       <c r="M13">
-        <v>15</v>
+        <v>94</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1129,7 +1144,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>4</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1140,10 +1155,10 @@
         <v>0.7777777777777778</v>
       </c>
       <c r="L14">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="M14">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1155,7 +1170,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1163,13 +1178,13 @@
         <v>31</v>
       </c>
       <c r="K15">
-        <v>0.7777777777777778</v>
+        <v>0.7758620689655172</v>
       </c>
       <c r="L15">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="M15">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1181,7 +1196,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1189,13 +1204,13 @@
         <v>32</v>
       </c>
       <c r="K16">
-        <v>0.7666666666666667</v>
+        <v>0.7727272727272727</v>
       </c>
       <c r="L16">
-        <v>92</v>
+        <v>17</v>
       </c>
       <c r="M16">
-        <v>92</v>
+        <v>17</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1207,7 +1222,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>28</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="10:17">
@@ -1215,13 +1230,13 @@
         <v>33</v>
       </c>
       <c r="K17">
-        <v>0.75</v>
+        <v>0.7254901960784313</v>
       </c>
       <c r="L17">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="M17">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1233,7 +1248,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="10:17">
@@ -1241,13 +1256,13 @@
         <v>34</v>
       </c>
       <c r="K18">
-        <v>0.7394366197183099</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="L18">
-        <v>105</v>
+        <v>26</v>
       </c>
       <c r="M18">
-        <v>105</v>
+        <v>26</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1259,7 +1274,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>37</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="10:17">
@@ -1267,13 +1282,13 @@
         <v>35</v>
       </c>
       <c r="K19">
-        <v>0.7075471698113207</v>
+        <v>0.7183098591549296</v>
       </c>
       <c r="L19">
-        <v>75</v>
+        <v>102</v>
       </c>
       <c r="M19">
-        <v>75</v>
+        <v>102</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1285,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>31</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1293,13 +1308,13 @@
         <v>36</v>
       </c>
       <c r="K20">
-        <v>0.7</v>
+        <v>0.69375</v>
       </c>
       <c r="L20">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="M20">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1311,7 +1326,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="21" spans="10:17">
@@ -1319,13 +1334,13 @@
         <v>37</v>
       </c>
       <c r="K21">
-        <v>0.6862745098039216</v>
+        <v>0.6886792452830188</v>
       </c>
       <c r="L21">
-        <v>35</v>
+        <v>73</v>
       </c>
       <c r="M21">
-        <v>35</v>
+        <v>73</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1337,7 +1352,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="10:17">
@@ -1345,13 +1360,13 @@
         <v>38</v>
       </c>
       <c r="K22">
-        <v>0.64</v>
+        <v>0.625</v>
       </c>
       <c r="L22">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="M22">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1363,7 +1378,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" spans="10:17">
@@ -1371,13 +1386,13 @@
         <v>39</v>
       </c>
       <c r="K23">
-        <v>0.6349206349206349</v>
+        <v>0.6190476190476191</v>
       </c>
       <c r="L23">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M23">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1389,7 +1404,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -1397,13 +1412,13 @@
         <v>40</v>
       </c>
       <c r="K24">
-        <v>0.6276595744680851</v>
+        <v>0.6071428571428571</v>
       </c>
       <c r="L24">
-        <v>59</v>
+        <v>17</v>
       </c>
       <c r="M24">
-        <v>59</v>
+        <v>17</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1415,7 +1430,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>35</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1423,13 +1438,13 @@
         <v>41</v>
       </c>
       <c r="K25">
-        <v>0.625</v>
+        <v>0.6</v>
       </c>
       <c r="L25">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="M25">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1441,7 +1456,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1449,13 +1464,13 @@
         <v>42</v>
       </c>
       <c r="K26">
-        <v>0.6041666666666666</v>
+        <v>0.5957446808510638</v>
       </c>
       <c r="L26">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="M26">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1467,7 +1482,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>19</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="10:17">
@@ -1475,13 +1490,13 @@
         <v>43</v>
       </c>
       <c r="K27">
-        <v>0.5117493472584856</v>
+        <v>0.574468085106383</v>
       </c>
       <c r="L27">
-        <v>196</v>
+        <v>27</v>
       </c>
       <c r="M27">
-        <v>196</v>
+        <v>27</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1493,7 +1508,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>187</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" spans="10:17">
@@ -1501,13 +1516,13 @@
         <v>44</v>
       </c>
       <c r="K28">
-        <v>0.4814814814814815</v>
+        <v>0.5588235294117647</v>
       </c>
       <c r="L28">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M28">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1519,7 +1534,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="29" spans="10:17">
@@ -1527,13 +1542,13 @@
         <v>45</v>
       </c>
       <c r="K29">
-        <v>0.4705882352941176</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="L29">
-        <v>160</v>
+        <v>15</v>
       </c>
       <c r="M29">
-        <v>160</v>
+        <v>15</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1545,7 +1560,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>180</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" spans="10:17">
@@ -1553,13 +1568,13 @@
         <v>46</v>
       </c>
       <c r="K30">
-        <v>0.4468085106382979</v>
+        <v>0.4908616187989556</v>
       </c>
       <c r="L30">
-        <v>21</v>
+        <v>188</v>
       </c>
       <c r="M30">
-        <v>21</v>
+        <v>188</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1571,7 +1586,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>26</v>
+        <v>195</v>
       </c>
     </row>
     <row r="31" spans="10:17">
@@ -1579,13 +1594,13 @@
         <v>47</v>
       </c>
       <c r="K31">
-        <v>0.4269662921348314</v>
+        <v>0.4791666666666667</v>
       </c>
       <c r="L31">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="M31">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1597,7 +1612,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>51</v>
+        <v>25</v>
       </c>
     </row>
     <row r="32" spans="10:17">
@@ -1605,13 +1620,13 @@
         <v>48</v>
       </c>
       <c r="K32">
-        <v>0.3835616438356164</v>
+        <v>0.4735294117647059</v>
       </c>
       <c r="L32">
-        <v>28</v>
+        <v>161</v>
       </c>
       <c r="M32">
-        <v>28</v>
+        <v>161</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1623,7 +1638,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>45</v>
+        <v>179</v>
       </c>
     </row>
     <row r="33" spans="10:17">
@@ -1631,13 +1646,13 @@
         <v>49</v>
       </c>
       <c r="K33">
-        <v>0.3694915254237288</v>
+        <v>0.4719101123595505</v>
       </c>
       <c r="L33">
-        <v>109</v>
+        <v>42</v>
       </c>
       <c r="M33">
-        <v>109</v>
+        <v>42</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1649,7 +1664,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>186</v>
+        <v>47</v>
       </c>
     </row>
     <row r="34" spans="10:17">
@@ -1657,13 +1672,13 @@
         <v>50</v>
       </c>
       <c r="K34">
-        <v>0.358974358974359</v>
+        <v>0.4169491525423729</v>
       </c>
       <c r="L34">
-        <v>28</v>
+        <v>123</v>
       </c>
       <c r="M34">
-        <v>28</v>
+        <v>123</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1675,7 +1690,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>50</v>
+        <v>172</v>
       </c>
     </row>
     <row r="35" spans="10:17">
@@ -1683,13 +1698,13 @@
         <v>51</v>
       </c>
       <c r="K35">
-        <v>0.3555555555555556</v>
+        <v>0.375</v>
       </c>
       <c r="L35">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M35">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1701,7 +1716,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="36" spans="10:17">
@@ -1709,13 +1724,13 @@
         <v>52</v>
       </c>
       <c r="K36">
-        <v>0.3221757322175732</v>
+        <v>0.3430962343096234</v>
       </c>
       <c r="L36">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="M36">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1727,7 +1742,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>162</v>
+        <v>157</v>
       </c>
     </row>
     <row r="37" spans="10:17">
@@ -1735,13 +1750,13 @@
         <v>53</v>
       </c>
       <c r="K37">
-        <v>0.296875</v>
+        <v>0.3424657534246575</v>
       </c>
       <c r="L37">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="M37">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1753,7 +1768,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="38" spans="10:17">
@@ -1761,13 +1776,13 @@
         <v>54</v>
       </c>
       <c r="K38">
-        <v>0.2461538461538462</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L38">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M38">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1779,7 +1794,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>49</v>
+        <v>30</v>
       </c>
     </row>
     <row r="39" spans="10:17">
@@ -1787,13 +1802,13 @@
         <v>55</v>
       </c>
       <c r="K39">
-        <v>0.2285714285714286</v>
+        <v>0.3230769230769231</v>
       </c>
       <c r="L39">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="M39">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -1805,7 +1820,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>54</v>
+        <v>44</v>
       </c>
     </row>
     <row r="40" spans="10:17">
@@ -1813,25 +1828,155 @@
         <v>56</v>
       </c>
       <c r="K40">
-        <v>0.004829362524146813</v>
+        <v>0.2948717948717949</v>
       </c>
       <c r="L40">
+        <v>23</v>
+      </c>
+      <c r="M40">
+        <v>23</v>
+      </c>
+      <c r="N40">
+        <v>1</v>
+      </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
+      <c r="P40" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q40">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="41" spans="10:17">
+      <c r="J41" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K41">
+        <v>0.234375</v>
+      </c>
+      <c r="L41">
         <v>15</v>
       </c>
-      <c r="M40">
+      <c r="M41">
+        <v>15</v>
+      </c>
+      <c r="N41">
+        <v>1</v>
+      </c>
+      <c r="O41">
+        <v>0</v>
+      </c>
+      <c r="P41" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q41">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="42" spans="10:17">
+      <c r="J42" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="K42">
+        <v>0.2142857142857143</v>
+      </c>
+      <c r="L42">
+        <v>15</v>
+      </c>
+      <c r="M42">
+        <v>15</v>
+      </c>
+      <c r="N42">
+        <v>1</v>
+      </c>
+      <c r="O42">
+        <v>0</v>
+      </c>
+      <c r="P42" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q42">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="43" spans="10:17">
+      <c r="J43" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="K43">
+        <v>0.01565995525727069</v>
+      </c>
+      <c r="L43">
+        <v>14</v>
+      </c>
+      <c r="M43">
+        <v>14</v>
+      </c>
+      <c r="N43">
+        <v>1</v>
+      </c>
+      <c r="O43">
+        <v>0</v>
+      </c>
+      <c r="P43" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q43">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="44" spans="10:17">
+      <c r="J44" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K44">
+        <v>0.008870214752567693</v>
+      </c>
+      <c r="L44">
+        <v>19</v>
+      </c>
+      <c r="M44">
+        <v>20</v>
+      </c>
+      <c r="N44">
+        <v>0.95</v>
+      </c>
+      <c r="O44">
+        <v>0.05000000000000004</v>
+      </c>
+      <c r="P44" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q44">
+        <v>2123</v>
+      </c>
+    </row>
+    <row r="45" spans="10:17">
+      <c r="J45" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="K45">
+        <v>0.005152979066022544</v>
+      </c>
+      <c r="L45">
         <v>16</v>
       </c>
-      <c r="N40">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="O40">
-        <v>0.06000000000000005</v>
-      </c>
-      <c r="P40" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q40">
-        <v>3091</v>
+      <c r="M45">
+        <v>18</v>
+      </c>
+      <c r="N45">
+        <v>0.89</v>
+      </c>
+      <c r="O45">
+        <v>0.11</v>
+      </c>
+      <c r="P45" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q45">
+        <v>3089</v>
       </c>
     </row>
   </sheetData>

--- a/results/mp/tinybert/corona/confidence/42/stop-words-topk-0.1/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/42/stop-words-topk-0.1/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="64">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,21 +43,21 @@
     <t>killed</t>
   </si>
   <si>
+    <t>arrested</t>
+  </si>
+  <si>
     <t>crude</t>
   </si>
   <si>
-    <t>arrested</t>
+    <t>fraud</t>
+  </si>
+  <si>
+    <t>crisis</t>
   </si>
   <si>
     <t>died</t>
   </si>
   <si>
-    <t>crisis</t>
-  </si>
-  <si>
-    <t>fraud</t>
-  </si>
-  <si>
     <t>forced</t>
   </si>
   <si>
@@ -73,46 +73,52 @@
     <t>negative</t>
   </si>
   <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
-    <t>happy</t>
-  </si>
-  <si>
     <t>friend</t>
   </si>
   <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
     <t>great</t>
   </si>
   <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
     <t>nice</t>
   </si>
   <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
     <t>special</t>
   </si>
   <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>amazing</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>strong</t>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>ensure</t>
   </si>
   <si>
     <t>safety</t>
@@ -121,22 +127,25 @@
     <t>confidence</t>
   </si>
   <si>
-    <t>safe</t>
+    <t>support</t>
   </si>
   <si>
     <t>good</t>
   </si>
   <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>ensure</t>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>boost</t>
+  </si>
+  <si>
+    <t>friends</t>
   </si>
   <si>
     <t>better</t>
   </si>
   <si>
-    <t>friends</t>
+    <t>fresh</t>
   </si>
   <si>
     <t>relief</t>
@@ -145,55 +154,52 @@
     <t>well</t>
   </si>
   <si>
+    <t>dear</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
     <t>heroes</t>
   </si>
   <si>
+    <t>energy</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
     <t>credit</t>
   </si>
   <si>
-    <t>healthy</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
     <t>care</t>
   </si>
   <si>
     <t>help</t>
   </si>
   <si>
-    <t>energy</t>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>sure</t>
   </si>
   <si>
     <t>please</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>sure</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>store</t>
   </si>
   <si>
     <t>19</t>
@@ -557,7 +563,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q45"/>
+  <dimension ref="A1:Q47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -568,7 +574,7 @@
         <v>18</v>
       </c>
       <c r="J1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -650,13 +656,13 @@
         <v>19</v>
       </c>
       <c r="K3">
-        <v>0.9661016949152542</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>57</v>
+        <v>18</v>
       </c>
       <c r="M3">
-        <v>57</v>
+        <v>18</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -668,7 +674,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -676,13 +682,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8823529411764706</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="C4">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="D4">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -694,19 +700,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>20</v>
       </c>
       <c r="K4">
-        <v>0.9615384615384616</v>
+        <v>0.9393939393939394</v>
       </c>
       <c r="L4">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M4">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -718,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -726,13 +732,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8666666666666667</v>
+        <v>0.7941176470588235</v>
       </c>
       <c r="C5">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="D5">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -744,19 +750,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>21</v>
       </c>
       <c r="K5">
-        <v>0.9473684210526315</v>
+        <v>0.9347826086956522</v>
       </c>
       <c r="L5">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="M5">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -768,7 +774,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -776,13 +782,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.6153846153846154</v>
+        <v>0.6388888888888888</v>
       </c>
       <c r="C6">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D6">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -794,19 +800,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>22</v>
       </c>
       <c r="K6">
-        <v>0.9130434782608695</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="L6">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="M6">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -818,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -826,13 +832,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.6061643835616438</v>
+        <v>0.6095890410958904</v>
       </c>
       <c r="C7">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D7">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -844,19 +850,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>23</v>
       </c>
       <c r="K7">
-        <v>0.8787878787878788</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="L7">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="M7">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -868,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -876,13 +882,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.5277777777777778</v>
+        <v>0.5769230769230769</v>
       </c>
       <c r="C8">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D8">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -894,19 +900,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>24</v>
       </c>
       <c r="K8">
-        <v>0.8660714285714286</v>
+        <v>0.8983050847457628</v>
       </c>
       <c r="L8">
-        <v>97</v>
+        <v>53</v>
       </c>
       <c r="M8">
-        <v>97</v>
+        <v>53</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -918,7 +924,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -926,13 +932,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.4482758620689655</v>
+        <v>0.5172413793103449</v>
       </c>
       <c r="C9">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D9">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -944,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>25</v>
       </c>
       <c r="K9">
-        <v>0.8148148148148148</v>
+        <v>0.8947368421052632</v>
       </c>
       <c r="L9">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="M9">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -968,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -976,13 +982,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.1802325581395349</v>
+        <v>0.187984496124031</v>
       </c>
       <c r="C10">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="D10">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -994,19 +1000,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>26</v>
       </c>
       <c r="K10">
-        <v>0.8055555555555556</v>
+        <v>0.8660714285714286</v>
       </c>
       <c r="L10">
-        <v>29</v>
+        <v>97</v>
       </c>
       <c r="M10">
-        <v>29</v>
+        <v>97</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1018,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1026,13 +1032,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.1798941798941799</v>
+        <v>0.1587301587301587</v>
       </c>
       <c r="C11">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D11">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1044,19 +1050,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>27</v>
       </c>
       <c r="K11">
-        <v>0.8048780487804879</v>
+        <v>0.8414634146341463</v>
       </c>
       <c r="L11">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="M11">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1068,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1076,13 +1082,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.09395973154362416</v>
+        <v>0.1140939597315436</v>
       </c>
       <c r="C12">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D12">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1094,19 +1100,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>28</v>
       </c>
       <c r="K12">
-        <v>0.8046875</v>
+        <v>0.8203125</v>
       </c>
       <c r="L12">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="M12">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1118,7 +1124,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1126,13 +1132,13 @@
         <v>29</v>
       </c>
       <c r="K13">
-        <v>0.7833333333333333</v>
+        <v>0.8148148148148148</v>
       </c>
       <c r="L13">
-        <v>94</v>
+        <v>22</v>
       </c>
       <c r="M13">
-        <v>94</v>
+        <v>22</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1144,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>26</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1152,13 +1158,13 @@
         <v>30</v>
       </c>
       <c r="K14">
-        <v>0.7777777777777778</v>
+        <v>0.8103448275862069</v>
       </c>
       <c r="L14">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="M14">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1170,7 +1176,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1178,13 +1184,13 @@
         <v>31</v>
       </c>
       <c r="K15">
-        <v>0.7758620689655172</v>
+        <v>0.7833333333333333</v>
       </c>
       <c r="L15">
-        <v>45</v>
+        <v>94</v>
       </c>
       <c r="M15">
-        <v>45</v>
+        <v>94</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1196,7 +1202,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>13</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1204,13 +1210,13 @@
         <v>32</v>
       </c>
       <c r="K16">
-        <v>0.7727272727272727</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L16">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="M16">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1222,7 +1228,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="10:17">
@@ -1230,13 +1236,13 @@
         <v>33</v>
       </c>
       <c r="K17">
-        <v>0.7254901960784313</v>
+        <v>0.7605633802816901</v>
       </c>
       <c r="L17">
-        <v>37</v>
+        <v>108</v>
       </c>
       <c r="M17">
-        <v>37</v>
+        <v>108</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1248,7 +1254,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>14</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="10:17">
@@ -1256,13 +1262,13 @@
         <v>34</v>
       </c>
       <c r="K18">
-        <v>0.7222222222222222</v>
+        <v>0.75</v>
       </c>
       <c r="L18">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="M18">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1274,7 +1280,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="10:17">
@@ -1282,13 +1288,13 @@
         <v>35</v>
       </c>
       <c r="K19">
-        <v>0.7183098591549296</v>
+        <v>0.7254901960784313</v>
       </c>
       <c r="L19">
-        <v>102</v>
+        <v>37</v>
       </c>
       <c r="M19">
-        <v>102</v>
+        <v>37</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1300,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>40</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1308,13 +1314,13 @@
         <v>36</v>
       </c>
       <c r="K20">
-        <v>0.69375</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="L20">
-        <v>111</v>
+        <v>26</v>
       </c>
       <c r="M20">
-        <v>111</v>
+        <v>26</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1326,7 +1332,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>49</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="10:17">
@@ -1334,13 +1340,13 @@
         <v>37</v>
       </c>
       <c r="K21">
-        <v>0.6886792452830188</v>
+        <v>0.7169811320754716</v>
       </c>
       <c r="L21">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="M21">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1352,7 +1358,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="10:17">
@@ -1360,13 +1366,13 @@
         <v>38</v>
       </c>
       <c r="K22">
-        <v>0.625</v>
+        <v>0.7</v>
       </c>
       <c r="L22">
-        <v>15</v>
+        <v>112</v>
       </c>
       <c r="M22">
-        <v>15</v>
+        <v>112</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1378,7 +1384,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>9</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23" spans="10:17">
@@ -1386,13 +1392,13 @@
         <v>39</v>
       </c>
       <c r="K23">
-        <v>0.6190476190476191</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L23">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="M23">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1404,7 +1410,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>24</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -1412,13 +1418,13 @@
         <v>40</v>
       </c>
       <c r="K24">
-        <v>0.6071428571428571</v>
+        <v>0.6521739130434783</v>
       </c>
       <c r="L24">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M24">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1430,7 +1436,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1438,13 +1444,13 @@
         <v>41</v>
       </c>
       <c r="K25">
-        <v>0.6</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="L25">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="M25">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1456,7 +1462,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1464,13 +1470,13 @@
         <v>42</v>
       </c>
       <c r="K26">
-        <v>0.5957446808510638</v>
+        <v>0.6349206349206349</v>
       </c>
       <c r="L26">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="M26">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1482,7 +1488,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>38</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27" spans="10:17">
@@ -1490,13 +1496,13 @@
         <v>43</v>
       </c>
       <c r="K27">
-        <v>0.574468085106383</v>
+        <v>0.6041666666666666</v>
       </c>
       <c r="L27">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M27">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1508,7 +1514,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="28" spans="10:17">
@@ -1516,13 +1522,13 @@
         <v>44</v>
       </c>
       <c r="K28">
-        <v>0.5588235294117647</v>
+        <v>0.6</v>
       </c>
       <c r="L28">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="M28">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1534,7 +1540,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" spans="10:17">
@@ -1542,13 +1548,13 @@
         <v>45</v>
       </c>
       <c r="K29">
-        <v>0.5555555555555556</v>
+        <v>0.5957446808510638</v>
       </c>
       <c r="L29">
-        <v>15</v>
+        <v>56</v>
       </c>
       <c r="M29">
-        <v>15</v>
+        <v>56</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1560,7 +1566,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>12</v>
+        <v>38</v>
       </c>
     </row>
     <row r="30" spans="10:17">
@@ -1568,13 +1574,13 @@
         <v>46</v>
       </c>
       <c r="K30">
-        <v>0.4908616187989556</v>
+        <v>0.5357142857142857</v>
       </c>
       <c r="L30">
-        <v>188</v>
+        <v>15</v>
       </c>
       <c r="M30">
-        <v>188</v>
+        <v>15</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1586,7 +1592,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>195</v>
+        <v>13</v>
       </c>
     </row>
     <row r="31" spans="10:17">
@@ -1594,13 +1600,13 @@
         <v>47</v>
       </c>
       <c r="K31">
-        <v>0.4791666666666667</v>
+        <v>0.4986945169712794</v>
       </c>
       <c r="L31">
-        <v>23</v>
+        <v>191</v>
       </c>
       <c r="M31">
-        <v>23</v>
+        <v>191</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1612,7 +1618,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>25</v>
+        <v>192</v>
       </c>
     </row>
     <row r="32" spans="10:17">
@@ -1620,13 +1626,13 @@
         <v>48</v>
       </c>
       <c r="K32">
-        <v>0.4735294117647059</v>
+        <v>0.4893617021276596</v>
       </c>
       <c r="L32">
-        <v>161</v>
+        <v>23</v>
       </c>
       <c r="M32">
-        <v>161</v>
+        <v>23</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1638,7 +1644,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>179</v>
+        <v>24</v>
       </c>
     </row>
     <row r="33" spans="10:17">
@@ -1646,13 +1652,13 @@
         <v>49</v>
       </c>
       <c r="K33">
-        <v>0.4719101123595505</v>
+        <v>0.475</v>
       </c>
       <c r="L33">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="M33">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1664,7 +1670,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>47</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" spans="10:17">
@@ -1672,13 +1678,13 @@
         <v>50</v>
       </c>
       <c r="K34">
-        <v>0.4169491525423729</v>
+        <v>0.4647058823529412</v>
       </c>
       <c r="L34">
-        <v>123</v>
+        <v>158</v>
       </c>
       <c r="M34">
-        <v>123</v>
+        <v>158</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1690,7 +1696,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>172</v>
+        <v>182</v>
       </c>
     </row>
     <row r="35" spans="10:17">
@@ -1698,25 +1704,25 @@
         <v>51</v>
       </c>
       <c r="K35">
-        <v>0.375</v>
+        <v>0.4642857142857143</v>
       </c>
       <c r="L35">
+        <v>13</v>
+      </c>
+      <c r="M35">
+        <v>13</v>
+      </c>
+      <c r="N35">
+        <v>1</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q35">
         <v>15</v>
-      </c>
-      <c r="M35">
-        <v>15</v>
-      </c>
-      <c r="N35">
-        <v>1</v>
-      </c>
-      <c r="O35">
-        <v>0</v>
-      </c>
-      <c r="P35" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q35">
-        <v>25</v>
       </c>
     </row>
     <row r="36" spans="10:17">
@@ -1724,13 +1730,13 @@
         <v>52</v>
       </c>
       <c r="K36">
-        <v>0.3430962343096234</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="L36">
-        <v>82</v>
+        <v>20</v>
       </c>
       <c r="M36">
-        <v>82</v>
+        <v>20</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1742,7 +1748,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>157</v>
+        <v>25</v>
       </c>
     </row>
     <row r="37" spans="10:17">
@@ -1750,13 +1756,13 @@
         <v>53</v>
       </c>
       <c r="K37">
-        <v>0.3424657534246575</v>
+        <v>0.4411764705882353</v>
       </c>
       <c r="L37">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="M37">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1768,7 +1774,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>48</v>
+        <v>19</v>
       </c>
     </row>
     <row r="38" spans="10:17">
@@ -1776,13 +1782,13 @@
         <v>54</v>
       </c>
       <c r="K38">
-        <v>0.3333333333333333</v>
+        <v>0.4382022471910113</v>
       </c>
       <c r="L38">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="M38">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1794,7 +1800,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="39" spans="10:17">
@@ -1802,13 +1808,13 @@
         <v>55</v>
       </c>
       <c r="K39">
-        <v>0.3230769230769231</v>
+        <v>0.4271186440677966</v>
       </c>
       <c r="L39">
-        <v>21</v>
+        <v>126</v>
       </c>
       <c r="M39">
-        <v>21</v>
+        <v>126</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -1820,7 +1826,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>44</v>
+        <v>169</v>
       </c>
     </row>
     <row r="40" spans="10:17">
@@ -1828,13 +1834,13 @@
         <v>56</v>
       </c>
       <c r="K40">
-        <v>0.2948717948717949</v>
+        <v>0.3974358974358974</v>
       </c>
       <c r="L40">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="M40">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -1846,7 +1852,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="41" spans="10:17">
@@ -1854,13 +1860,13 @@
         <v>57</v>
       </c>
       <c r="K41">
-        <v>0.234375</v>
+        <v>0.3714285714285714</v>
       </c>
       <c r="L41">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="M41">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -1872,7 +1878,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>49</v>
+        <v>22</v>
       </c>
     </row>
     <row r="42" spans="10:17">
@@ -1880,13 +1886,13 @@
         <v>58</v>
       </c>
       <c r="K42">
-        <v>0.2142857142857143</v>
+        <v>0.3561643835616438</v>
       </c>
       <c r="L42">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="M42">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -1898,7 +1904,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="43" spans="10:17">
@@ -1906,13 +1912,13 @@
         <v>59</v>
       </c>
       <c r="K43">
-        <v>0.01565995525727069</v>
+        <v>0.3538461538461539</v>
       </c>
       <c r="L43">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="M43">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -1924,7 +1930,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>880</v>
+        <v>42</v>
       </c>
     </row>
     <row r="44" spans="10:17">
@@ -1932,25 +1938,25 @@
         <v>60</v>
       </c>
       <c r="K44">
-        <v>0.008870214752567693</v>
+        <v>0.34375</v>
       </c>
       <c r="L44">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="M44">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="N44">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O44">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q44">
-        <v>2123</v>
+        <v>42</v>
       </c>
     </row>
     <row r="45" spans="10:17">
@@ -1958,24 +1964,76 @@
         <v>61</v>
       </c>
       <c r="K45">
-        <v>0.005152979066022544</v>
+        <v>0.3138075313807531</v>
       </c>
       <c r="L45">
+        <v>75</v>
+      </c>
+      <c r="M45">
+        <v>75</v>
+      </c>
+      <c r="N45">
+        <v>1</v>
+      </c>
+      <c r="O45">
+        <v>0</v>
+      </c>
+      <c r="P45" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q45">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="46" spans="10:17">
+      <c r="J46" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K46">
+        <v>0.007469654528478058</v>
+      </c>
+      <c r="L46">
         <v>16</v>
       </c>
-      <c r="M45">
+      <c r="M46">
+        <v>17</v>
+      </c>
+      <c r="N46">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="O46">
+        <v>0.06000000000000005</v>
+      </c>
+      <c r="P46" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q46">
+        <v>2126</v>
+      </c>
+    </row>
+    <row r="47" spans="10:17">
+      <c r="J47" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K47">
+        <v>0.005793369810106212</v>
+      </c>
+      <c r="L47">
         <v>18</v>
       </c>
-      <c r="N45">
-        <v>0.89</v>
-      </c>
-      <c r="O45">
-        <v>0.11</v>
-      </c>
-      <c r="P45" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q45">
+      <c r="M47">
+        <v>18</v>
+      </c>
+      <c r="N47">
+        <v>1</v>
+      </c>
+      <c r="O47">
+        <v>0</v>
+      </c>
+      <c r="P47" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q47">
         <v>3089</v>
       </c>
     </row>
